--- a/rank_analysis/4-1-analysis.xlsx
+++ b/rank_analysis/4-1-analysis.xlsx
@@ -388,7 +388,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>834.0</t>
+          <t>143.0</t>
         </is>
       </c>
     </row>
@@ -405,7 +405,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>820.05</t>
+          <t>197.2</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>513.48</t>
+          <t>207.42</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>645.1</t>
+          <t>199.03</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>562.85</t>
+          <t>211.9</t>
         </is>
       </c>
     </row>
@@ -468,12 +468,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>723.728</t>
+          <t>183.18</t>
         </is>
       </c>
     </row>
